--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Personal\MyGitHub\Pythons\ExportTools\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyGitHub\ExcelExport\Exporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId1"/>
+    <sheet name="测试单表|TestTableArray" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>英雄ID</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>地形适应</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -85,97 +81,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>平原</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试地形适应1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试地形适应2</t>
-  </si>
-  <si>
-    <t>测试地形适应3</t>
-  </si>
-  <si>
     <t>2,1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +457,7 @@
   <dimension ref="A1:FY13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -968,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1346,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1355,171 +1265,51 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
   <si>
     <t>英雄ID</t>
   </si>
@@ -87,6 +87,60 @@
   <si>
     <t>2,1,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,4</t>
+  </si>
+  <si>
+    <t>2,1,5</t>
+  </si>
+  <si>
+    <t>2,1,6</t>
+  </si>
+  <si>
+    <t>2,1,7</t>
+  </si>
+  <si>
+    <t>2,1,8</t>
+  </si>
+  <si>
+    <t>2,1,9</t>
+  </si>
+  <si>
+    <t>2,1,10</t>
+  </si>
+  <si>
+    <t>2,1,11</t>
+  </si>
+  <si>
+    <t>2,1,12</t>
+  </si>
+  <si>
+    <t>2,1,13</t>
+  </si>
+  <si>
+    <t>2,1,14</t>
+  </si>
+  <si>
+    <t>2,1,15</t>
+  </si>
+  <si>
+    <t>2,1,16</t>
+  </si>
+  <si>
+    <t>2,1,17</t>
+  </si>
+  <si>
+    <t>2,1,18</t>
+  </si>
+  <si>
+    <t>2,1,19</t>
+  </si>
+  <si>
+    <t>2,1,20</t>
+  </si>
+  <si>
+    <t>2,1,21</t>
   </si>
 </sst>
 </file>
@@ -454,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FY13"/>
+  <dimension ref="A1:FY23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F16" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,44 +1326,364 @@
       </c>
     </row>
     <row r="6" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>英雄ID</t>
   </si>
@@ -114,15 +114,6 @@
   </si>
   <si>
     <t>2,1,12</t>
-  </si>
-  <si>
-    <t>2,1,13</t>
-  </si>
-  <si>
-    <t>2,1,14</t>
-  </si>
-  <si>
-    <t>2,1,15</t>
   </si>
   <si>
     <t>2,1,16</t>
@@ -511,7 +502,7 @@
   <dimension ref="A1:FY23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F15:F16"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,71 +1497,26 @@
       </c>
     </row>
     <row r="15" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1590,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1610,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1630,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1650,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1670,7 +1616,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>

--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>英雄ID</t>
   </si>
@@ -132,6 +132,119 @@
   </si>
   <si>
     <t>2,1,21</t>
+  </si>
+  <si>
+    <t>出生位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position3d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>born_position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>1;2;4</t>
+  </si>
+  <si>
+    <t>1;2;5</t>
+  </si>
+  <si>
+    <t>1;2;6</t>
+  </si>
+  <si>
+    <t>1;2;7</t>
+  </si>
+  <si>
+    <t>1;2;8</t>
+  </si>
+  <si>
+    <t>1;2;12</t>
+  </si>
+  <si>
+    <t>1;2;13</t>
+  </si>
+  <si>
+    <t>1;2;14</t>
+  </si>
+  <si>
+    <t>1;2;15</t>
+  </si>
+  <si>
+    <t>1;2;16</t>
+  </si>
+  <si>
+    <t>1;2;17</t>
+  </si>
+  <si>
+    <t>测试类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int type;int id}[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1;2},{1;2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1;2},{1;3}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;4}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;5}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;6}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;7}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;8}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;9}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;10}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;11}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;15}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;16}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;17}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;18}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;19}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;20}</t>
   </si>
 </sst>
 </file>
@@ -202,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +335,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -239,6 +358,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1262062</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1732358</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4417218" y="273844"/>
+          <a:ext cx="2030015" cy="750093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>此类型全局有，导出的脚本使用的是全局配置的而不是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TestType_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>类型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,24 +688,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FY23"/>
+  <dimension ref="A1:GA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="20.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,19 +714,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -710,19 +904,21 @@
       <c r="FW1" s="2"/>
       <c r="FX1" s="2"/>
       <c r="FY1" s="2"/>
-    </row>
-    <row r="2" spans="1:181" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+    </row>
+    <row r="2" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -730,8 +926,12 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -905,28 +1105,34 @@
       <c r="FW2" s="2"/>
       <c r="FX2" s="2"/>
       <c r="FY2" s="2"/>
-    </row>
-    <row r="3" spans="1:181" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="FZ2" s="2"/>
+      <c r="GA2" s="2"/>
+    </row>
+    <row r="3" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1100,8 +1306,10 @@
       <c r="FW3" s="2"/>
       <c r="FX3" s="2"/>
       <c r="FY3" s="2"/>
-    </row>
-    <row r="4" spans="1:181" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="FZ3" s="2"/>
+      <c r="GA3" s="2"/>
+    </row>
+    <row r="4" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1111,17 +1319,19 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1295,339 +1505,443 @@
       <c r="FW4" s="2"/>
       <c r="FX4" s="2"/>
       <c r="FY4" s="2"/>
-    </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="FZ4" s="2"/>
+      <c r="GA4" s="2"/>
+    </row>
+    <row r="5" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:183" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:183" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1635,5 +1949,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>英雄ID</t>
   </si>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>{1;2},{1;20}</t>
+  </si>
+  <si>
+    <t>{1:client,server}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -315,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +345,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -364,16 +371,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1262062</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1404936</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1732358</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>315514</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -382,7 +389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4417218" y="273844"/>
+          <a:off x="3000374" y="1023938"/>
           <a:ext cx="2030015" cy="750093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -691,7 +698,7 @@
   <dimension ref="A1:GA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1320,8 +1327,8 @@
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+      <c r="E4" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>

--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>英雄ID</t>
   </si>
@@ -194,60 +194,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{int type;int id}[]</t>
+    <t>{1;2},{1;4}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;6}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;7}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;8}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;9}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;10}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;11}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;15}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;16}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;17}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;18}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;19}</t>
+  </si>
+  <si>
+    <t>{1;2},{1;20}</t>
+  </si>
+  <si>
+    <t>{1:client,server}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{1;2},{1;2}</t>
+    <t>{int[] type;int id}[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{1;2},{1;3}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;4}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;5}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;6}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;7}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;8}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;9}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;10}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;11}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;15}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;16}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;17}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;18}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;19}</t>
-  </si>
-  <si>
-    <t>{1;2},{1;20}</t>
-  </si>
-  <si>
-    <t>{1:client,server}</t>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{;2},{1;3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{},{;}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -371,16 +394,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1404936</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>517921</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>315514</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952498</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -389,7 +412,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000374" y="1023938"/>
+          <a:off x="517921" y="1666875"/>
           <a:ext cx="2030015" cy="750093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -695,25 +718,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GA23"/>
+  <dimension ref="A1:GB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
-    <col min="3" max="4" width="20.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="20.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,19 +749,19 @@
       <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -913,8 +936,9 @@
       <c r="FY1" s="2"/>
       <c r="FZ1" s="2"/>
       <c r="GA1" s="2"/>
-    </row>
-    <row r="2" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="GB1" s="2"/>
+    </row>
+    <row r="2" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -925,10 +949,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -936,10 +960,12 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1114,8 +1140,9 @@
       <c r="FY2" s="2"/>
       <c r="FZ2" s="2"/>
       <c r="GA2" s="2"/>
-    </row>
-    <row r="3" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="GB2" s="2"/>
+    </row>
+    <row r="3" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1128,19 +1155,21 @@
       <c r="D3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1315,8 +1344,9 @@
       <c r="FY3" s="2"/>
       <c r="FZ3" s="2"/>
       <c r="GA3" s="2"/>
-    </row>
-    <row r="4" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="GB3" s="2"/>
+    </row>
+    <row r="4" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1327,11 +1357,9 @@
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
+      <c r="E4" s="2"/>
+      <c r="F4" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -1339,7 +1367,9 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1514,8 +1544,9 @@
       <c r="FY4" s="2"/>
       <c r="FZ4" s="2"/>
       <c r="GA4" s="2"/>
-    </row>
-    <row r="5" spans="1:183" x14ac:dyDescent="0.2">
+      <c r="GB4" s="2"/>
+    </row>
+    <row r="5" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1525,23 +1556,20 @@
       <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:183" x14ac:dyDescent="0.2">
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1552,22 +1580,25 @@
         <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1578,22 +1609,25 @@
         <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1604,22 +1638,25 @@
         <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1630,22 +1667,25 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1656,22 +1696,25 @@
         <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1682,22 +1725,25 @@
         <v>40</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1708,22 +1754,25 @@
         <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1734,23 +1783,26 @@
         <v>42</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:183" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1760,43 +1812,55 @@
         <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:183" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:184" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:183" x14ac:dyDescent="0.2">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:184" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="8"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1807,22 +1871,25 @@
         <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1833,22 +1900,25 @@
         <v>45</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1859,22 +1929,25 @@
         <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1885,22 +1958,25 @@
         <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1911,22 +1987,25 @@
         <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1937,18 +2016,21 @@
         <v>49</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
   <si>
     <t>英雄ID</t>
   </si>
@@ -187,10 +187,6 @@
   </si>
   <si>
     <t>TestType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -721,7 +717,7 @@
   <dimension ref="A1:GB23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,10 +945,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -961,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -1156,7 +1152,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -1359,7 +1355,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -1553,9 +1549,7 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="2">
         <v>1</v>
@@ -1567,7 +1561,9 @@
         <v>12</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>222</v>
+      </c>
     </row>
     <row r="6" spans="1:184" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1576,11 +1572,9 @@
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1605,11 +1599,9 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1634,11 +1626,9 @@
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1667,7 +1657,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1696,7 +1686,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1725,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1754,7 +1744,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1783,7 +1773,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1812,7 +1802,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1871,7 +1861,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1900,7 +1890,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1929,7 +1919,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1958,7 +1948,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1987,7 +1977,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -2016,7 +2006,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>

--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <t>英雄ID</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Weapon</t>
-  </si>
-  <si>
-    <t>Model</t>
   </si>
   <si>
     <t>server/client</t>
@@ -267,6 +264,31 @@
   </si>
   <si>
     <t>{},{;}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;;3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>server/client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModeL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -384,76 +406,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>517921</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952498</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="517921" y="1666875"/>
-          <a:ext cx="2030015" cy="750093"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>此类型全局有，导出的脚本使用的是全局配置的而不是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TestType_</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>类型</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,13 +668,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
     <col min="3" max="5" width="20.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="26" style="2" customWidth="1"/>
@@ -740,23 +692,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -942,13 +894,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -957,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -1146,25 +1098,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1343,28 +1295,28 @@
       <c r="GB3" s="2"/>
     </row>
     <row r="4" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
+      <c r="A4" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1547,18 +1499,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5">
@@ -1570,26 +1524,26 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:184" x14ac:dyDescent="0.2">
@@ -1597,26 +1551,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>20</v>
+      </c>
       <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:184" x14ac:dyDescent="0.2">
@@ -1624,26 +1577,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:184" x14ac:dyDescent="0.2">
@@ -1651,28 +1604,28 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:184" x14ac:dyDescent="0.2">
@@ -1680,28 +1633,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:184" x14ac:dyDescent="0.2">
@@ -1709,28 +1662,28 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:184" x14ac:dyDescent="0.2">
@@ -1738,28 +1691,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:184" x14ac:dyDescent="0.2">
@@ -1767,28 +1720,28 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:184" x14ac:dyDescent="0.2">
@@ -1796,28 +1749,28 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:184" x14ac:dyDescent="0.2">
@@ -1855,28 +1808,28 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1884,28 +1837,28 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1913,28 +1866,28 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1942,28 +1895,28 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1971,28 +1924,28 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2000,34 +1953,33 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Exporter/配置表2.xlsx
+++ b/Exporter/配置表2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>英雄ID</t>
   </si>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{;2},{1;3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{},{;}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -289,6 +285,14 @@
   </si>
   <si>
     <t>ModeL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{;2},{1;2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -666,25 +670,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GB23"/>
+  <dimension ref="A1:GC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
-    <col min="3" max="5" width="20.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="10.5" style="3" customWidth="1"/>
+    <col min="4" max="6" width="20.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:185" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -692,25 +696,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -885,36 +891,37 @@
       <c r="FZ1" s="2"/>
       <c r="GA1" s="2"/>
       <c r="GB1" s="2"/>
-    </row>
-    <row r="2" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="GC1" s="2"/>
+    </row>
+    <row r="2" spans="1:185" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1089,36 +1096,37 @@
       <c r="FZ2" s="2"/>
       <c r="GA2" s="2"/>
       <c r="GB2" s="2"/>
-    </row>
-    <row r="3" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="GC2" s="2"/>
+    </row>
+    <row r="3" spans="1:185" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1293,24 +1301,23 @@
       <c r="FZ3" s="2"/>
       <c r="GA3" s="2"/>
       <c r="GB3" s="2"/>
-    </row>
-    <row r="4" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="GC3" s="2"/>
+    </row>
+    <row r="4" spans="1:185" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -1318,7 +1325,9 @@
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1493,33 +1502,35 @@
       <c r="FZ4" s="2"/>
       <c r="GA4" s="2"/>
       <c r="GB4" s="2"/>
-    </row>
-    <row r="5" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="GC4" s="2"/>
+    </row>
+    <row r="5" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5">
+      <c r="I5" s="7"/>
+      <c r="J5" s="5">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1527,52 +1538,54 @@
         <v>19</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1580,400 +1593,416 @@
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:184" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:185" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="2">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:184" x14ac:dyDescent="0.2">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:185" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="2">
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="2">
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
